--- a/mesures.xlsx
+++ b/mesures.xlsx
@@ -13342,7 +13342,7 @@
   <dimension ref="A1:M1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
